--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Het ging redelijk simpel</t>
+  </si>
+  <si>
+    <t>Interview vragen</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>je moest goed na denken om ze te verzinnen</t>
   </si>
 </sst>
 </file>
@@ -432,7 +441,7 @@
   <dimension ref="I7:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,10 +493,18 @@
       </c>
     </row>
     <row r="10" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3">
+        <v>42985</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I11" s="1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>Het ging redelijk simpel</t>
+  </si>
+  <si>
+    <t>interview vragen</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Het ging goed</t>
+  </si>
+  <si>
+    <t>Interviews gehad</t>
+  </si>
+  <si>
+    <t>1 1/2 uur</t>
+  </si>
+  <si>
+    <t>Ze waren heel handig omdat we nu weten wat we moeten doen</t>
   </si>
 </sst>
 </file>
@@ -432,7 +450,7 @@
   <dimension ref="I7:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,16 +502,32 @@
       </c>
     </row>
     <row r="10" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="3">
+        <v>42985</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3">
+        <v>42986</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I12" s="1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Ze waren heel handig omdat we nu weten wat we moeten doen</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>3 uur</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <dimension ref="I7:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,10 +536,18 @@
       </c>
     </row>
     <row r="12" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3">
+        <v>42991</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I13" s="1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -78,6 +78,39 @@
   </si>
   <si>
     <t>3 uur</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp</t>
+  </si>
+  <si>
+    <t>1,5 uur</t>
+  </si>
+  <si>
+    <t>het was makkelijk om te maken</t>
+  </si>
+  <si>
+    <t>Help-functie</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>Het was heel simpel</t>
+  </si>
+  <si>
+    <t>huisstijl</t>
+  </si>
+  <si>
+    <t>Het was heel simpel om te maken</t>
+  </si>
+  <si>
+    <t>acceptatietest</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>Ze waren best makkelijk om te verzinnen</t>
   </si>
 </sst>
 </file>
@@ -456,7 +489,7 @@
   <dimension ref="I7:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,28 +583,60 @@
       </c>
     </row>
     <row r="13" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="3">
+        <v>42992</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="3">
+        <v>42993</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3">
+        <v>42993</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="3">
+        <v>42993</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I17" s="1"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\Barroc_IT\Barroc-IT\documentatie\logboek\personlijke_logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Barroc-IT\documentatie\logboek\personlijke_logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -111,13 +111,35 @@
   </si>
   <si>
     <t>Ze waren best makkelijk om te verzinnen</t>
+  </si>
+  <si>
+    <t>materialen</t>
+  </si>
+  <si>
+    <t>Makkelijk om te maken</t>
+  </si>
+  <si>
+    <t>start home template</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>het gaat redelijk goed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,11 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -192,7 +215,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,196 +512,215 @@
   <dimension ref="I7:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="29.109375" customWidth="1"/>
+    <col min="1" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="16.88671875" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="57.109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="7" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>42983</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <v>42983</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>42985</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <v>42986</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>42991</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <v>42992</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>42993</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>42993</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <v>42993</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="I17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4">
+        <v>42996</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="I18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="4">
+        <v>42999</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>het gaat redelijk goed</t>
+  </si>
+  <si>
+    <t>Front-end home af</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>er waren soms wat poblemen maar voorderest ging het oke.</t>
+  </si>
+  <si>
+    <t>start database</t>
   </si>
 </sst>
 </file>
@@ -512,7 +524,7 @@
   <dimension ref="I7:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,16 +705,32 @@
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="4">
+        <v>43013</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="4">
+        <v>43013</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I21" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>start database</t>
+  </si>
+  <si>
+    <t>front-end definitief af</t>
+  </si>
+  <si>
+    <t>4,5 uur</t>
+  </si>
+  <si>
+    <t>het was best makkelijk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">database af </t>
+  </si>
+  <si>
+    <t>2,5 uur</t>
+  </si>
+  <si>
+    <t>het ging goed</t>
   </si>
 </sst>
 </file>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C9DD8-8A8E-4C8E-A99F-612C0B641610}">
-  <dimension ref="I7:L23"/>
+  <dimension ref="I7:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,16 +751,32 @@
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="4">
+        <v>43017</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="4">
+        <v>43017</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I23" s="3"/>
@@ -750,6 +784,42 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>het ging goed</t>
+  </si>
+  <si>
+    <t>start aan yields</t>
+  </si>
+  <si>
+    <t>het gaat tot nu toe goed</t>
   </si>
 </sst>
 </file>
@@ -541,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C9DD8-8A8E-4C8E-A99F-612C0B641610}">
   <dimension ref="I7:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,10 +785,18 @@
       </c>
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I24" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>het gaat tot nu toe goed</t>
+  </si>
+  <si>
+    <t>yields klaar</t>
+  </si>
+  <si>
+    <t>1 uur</t>
+  </si>
+  <si>
+    <t>was heel makkelijk</t>
+  </si>
+  <si>
+    <t>begonnen met development page</t>
   </si>
 </sst>
 </file>
@@ -547,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C9DD8-8A8E-4C8E-A99F-612C0B641610}">
   <dimension ref="I7:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,16 +811,32 @@
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="4">
+        <v>43020</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I26" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
+++ b/documentatie/logboek/personlijke_logboek/logboek Santi Dudok.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>bereikbaarheidslijst</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>begonnen met development page</t>
+  </si>
+  <si>
+    <t>development front-end af</t>
+  </si>
+  <si>
+    <t>Het ging redelijk simpel op een paar bugs na</t>
   </si>
 </sst>
 </file>
@@ -237,12 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -559,15 +567,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C9DD8-8A8E-4C8E-A99F-612C0B641610}">
   <dimension ref="I7:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="8.88671875" style="2"/>
     <col min="9" max="9" width="16.88671875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="57.109375" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -839,10 +848,18 @@
       </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="I26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="6">
+        <v>43031</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I27" s="3"/>
